--- a/questionnaires/RBDstandardized_questionnaireLHCS_CARI_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireLHCS_CARI_FR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A184D012-F2B7-4948-ACA6-F04AB4B55090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02F30E2-5589-4EAB-95B5-19943741E7A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="264">
   <si>
     <t>type</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Non, je n'ai pas été confronté à une insuffisance de nourriture</t>
-  </si>
-  <si>
-    <t>note2</t>
   </si>
   <si>
     <t>adm1_name</t>
@@ -456,12 +453,866 @@
   <si>
     <t>Francais</t>
   </si>
+  <si>
+    <t>noteLhCSI</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Services_financiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:red"&gt; Accès aux services financiers/ Epargne et Assurance &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>select_one Yesnodkref</t>
+  </si>
+  <si>
+    <t>EpargneArgentLiquide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous ou un autre membre du ménage épargnez-vous régulièrement de l'argent liquide ?  </t>
+  </si>
+  <si>
+    <t>ContraterPretespece</t>
+  </si>
+  <si>
+    <t>Est-ce que vous ou un autre membre du ménage avez contracté un prêt en espèces au cours des 12 derniers mois ?</t>
+  </si>
+  <si>
+    <t>SouscriptionAssusrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est-ce que vous ou un membre de votre ménage avez actuellement une assurance ? </t>
+  </si>
+  <si>
+    <t>ExstenceAssuranceRecolte</t>
+  </si>
+  <si>
+    <t>L'assurance récolte est-elle disponible dans votre région ?</t>
+  </si>
+  <si>
+    <t>typeAssurance</t>
+  </si>
+  <si>
+    <t>Lesquels des assustances suivantes vous ou quelqu'un de votre foyer avez-vous souscrit  actuellement ?</t>
+  </si>
+  <si>
+    <t>Startegies_Adaption_moyenExist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:red"&gt;  Stratégies d'adaptation basées sur les moyens d'existence &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>Expositionchocs5ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:red"&gt; Exposition aux chocs &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>nbchocsEn5ans</t>
+  </si>
+  <si>
+    <t>table-list</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>nbPluiesEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt; Pluies excessives/ inondations &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbSecheresseEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Pluies variables/sécheresse &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbGlissementterrainEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt; Glissements de terrain/érosion &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbMaladiesculturesEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Maladies des cultures &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbRavageursCulturesEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Ravageurs des cultures (criquets) &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbMauvaisesHerbesEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt; Mauvaises herbes (par exemple, associées à la striga) &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbMaladiesBetailsEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Maladies du bétail &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbEpidemiesEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Épidémies &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbVolsDestructionBiensEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt; Vol ou destruction de biens &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbVolBetailsEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Vol de bétail (raids) &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbRetardsAideHumanitaireEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Retard dans l'aide alimentaire &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbAugPrixAlimentsEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt; Augmentation des prix des aliments &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbAugmPrixIntrantsEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Augmentation des prix des intrants agricoles ou des intrants agricoles ou d'élevage &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbBaissePrixAgriElevEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Baisse des produits de l'agriculture ou de l'élevage &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbPertesTerresEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Perte de terres/de biens locatifs &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbChomagejeuneEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Chômage des jeunes &lt;/span&gt;?</t>
+  </si>
+  <si>
+    <t>nbDecesMembreMenageEn5ans</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Décès d'un membre du ménage &lt;/span&gt;?</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>chocsSubi12mois</t>
+  </si>
+  <si>
+    <t>Lesquels des chocs suivant Votre ménage a-t-il subi au cours de l'année dernière (12 mois) ?</t>
+  </si>
+  <si>
+    <t>select_one Yesno</t>
+  </si>
+  <si>
+    <t>PluiesDerniers12mois</t>
+  </si>
+  <si>
+    <t>a.Pluies excessives/ inondations</t>
+  </si>
+  <si>
+    <t>SecheresseDerniers12mois</t>
+  </si>
+  <si>
+    <t>b. Pluies variables/sécheresse</t>
+  </si>
+  <si>
+    <t>GlissementterrainDerniers12mois</t>
+  </si>
+  <si>
+    <t>d. Glissements de terrain/érosion</t>
+  </si>
+  <si>
+    <t>MaladiesculturesDerniers12mois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e. Maladies des cultures </t>
+  </si>
+  <si>
+    <t>RavageursCulturesDerniers12mois</t>
+  </si>
+  <si>
+    <t>f. Ravageurs des cultures (criquets)</t>
+  </si>
+  <si>
+    <t>MauvaisesHeresDerniers12mois</t>
+  </si>
+  <si>
+    <t>g. Mauvaises herbes (par exemple, associées à la striga)</t>
+  </si>
+  <si>
+    <t>MaladiesBetailsDerniers12mois</t>
+  </si>
+  <si>
+    <t>h. Maladies du bétail</t>
+  </si>
+  <si>
+    <t>EpidemiesDerniers12mois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i. Épidémies </t>
+  </si>
+  <si>
+    <t>VolsDestructionBiensDerniers12mois</t>
+  </si>
+  <si>
+    <t>j. Vol ou destruction de biens</t>
+  </si>
+  <si>
+    <t>VolBetailsDerniers12mois</t>
+  </si>
+  <si>
+    <t>k. Vol de bétail (raids)</t>
+  </si>
+  <si>
+    <t>RetardsAideHumanitaireDerniers12mois</t>
+  </si>
+  <si>
+    <t>l. Retard dans l'aide alimentaire</t>
+  </si>
+  <si>
+    <t>AugPrixAlimentsDerniers12mois</t>
+  </si>
+  <si>
+    <t>m. Augmentation des prix des aliments</t>
+  </si>
+  <si>
+    <t>AugmPrixIntrantsDerniers12mois</t>
+  </si>
+  <si>
+    <t>n. Augmentation des prix des intrants agricoles ou des intrants agricoles ou d'élevage</t>
+  </si>
+  <si>
+    <t>BaissePrixAgriElevDerniers12mois</t>
+  </si>
+  <si>
+    <t>o.Baisse des produits de l'agriculture ou de l'élevage</t>
+  </si>
+  <si>
+    <t>PertesTerresDerniers12mois</t>
+  </si>
+  <si>
+    <t>p. Perte de terres/de biens locatifs</t>
+  </si>
+  <si>
+    <t>ChomagejeuneDerniers12mois</t>
+  </si>
+  <si>
+    <t>q. Chômage des jeunes</t>
+  </si>
+  <si>
+    <t>DecesMembreMenageDerniers12mois</t>
+  </si>
+  <si>
+    <t>r. Décès d'un membre du ménage</t>
+  </si>
+  <si>
+    <t>select_one GraviteImpact</t>
+  </si>
+  <si>
+    <t>GraviteImpactRevenus</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quelle a été la gravité de l'impact sur &lt;span style="color:red"&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>les revenus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>de votre ménage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/span&gt;   au cours des 12 derniers mois ? </t>
+    </r>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>GraviteImpactSAN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quelle a été la gravité de l'impact sur  &lt;span style="color:red"&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  la consommation alimentaire de votre ménage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/span&gt;   au cours des 12 derniers mois ?</t>
+    </r>
+  </si>
+  <si>
+    <t>CapaciteAdresserChocs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:red"&gt;  Capacités à faire face aux chocs et facteurs de stress &lt;/span&gt;  </t>
+  </si>
+  <si>
+    <t>select_multiple bonnespratiques</t>
+  </si>
+  <si>
+    <t>bonnespratiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au cours des 12 derniers moi, lesquelles des pratiques suivantes avez vus ou un membre du ménage mis en oeuvre pour faire face à ces chocs (perturbations des pluies, etc) et  à la dégration des ressources naturelles et de l’environnement (dégradation des sols, etc)  ? </t>
+  </si>
+  <si>
+    <t>select_one CapaciteFaireFaceChocs</t>
+  </si>
+  <si>
+    <t>RetablissementCapacitesAlim</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dans quelle mesure votre capacité à &lt;span style="color:red"&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>satisfaire vos besoins alimentaires</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/span&gt;   est-elle revenue au niveau où elle était avant les chocs et les facteurs de stress que vous avez subis &lt;span style="color:red"&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>au cours des 12 derniers mois</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/span&gt;  ?</t>
+    </r>
+  </si>
+  <si>
+    <t>RetablissementCapacitealim1an</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compte tenu des chocs que vous avez subis au cours des 12 derniers mois, dans quelle mesure pensez-vous être en mesure de &lt;span style="color:red"&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>satisfaire vos besoins alimentaires au cours de l'année prochaine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/span&gt;   ?</t>
+    </r>
+  </si>
+  <si>
+    <t>capaciteprofCom</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pensez-vous connaitre ou disposez de &lt;span style="color:red"&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>capacités professionnelles et commerciales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/span&gt;  qui vous permettent de vous préparer et de faire face à d'éventuels chocs ou facteurs de stress ?</t>
+    </r>
+  </si>
+  <si>
+    <t>ConAccUtilisatInfoMarcheIntrant</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pensez-vous disposer de suffisamment de &lt;span style="color:red"&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">connaissance, d’accès et de capacité d'utilisation des informations sur les marchés d'intrants </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/span&gt;   pour vos activités agricoles et commerciales et de débouchés pour l'écoulement de vos produits ?</t>
+    </r>
+  </si>
+  <si>
+    <t>ConAccUtilisationInfoMarche</t>
+  </si>
+  <si>
+    <t>Pensez-vous disposer de suffisamment de connaissance, d'accès et de capacité d'utilisation des informations sur les marchés ?</t>
+  </si>
+  <si>
+    <t>SocialCapitalIndex</t>
+  </si>
+  <si>
+    <t>Social Capital Index</t>
+  </si>
+  <si>
+    <t>select_one Socialressources</t>
+  </si>
+  <si>
+    <t>AideIntraCommun</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Si votre ménage avait un problème et avait besoin d'une aide urgente (par exemple, de la nourriture, de l'argent, de la main-d'œuvre, du transport, etc.), à qui, &lt;span style="color:red"&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DANS CETTE COMMUNAUTÉ, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/span&gt;   pourriez-vous demander de l'aide (lisez la liste ; sélectionnez toutes les réponses qui s'appliquent).</t>
+    </r>
+  </si>
+  <si>
+    <t>AideIenDehorsCommun</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Si votre ménage avait un problème et avait besoin d'une aide urgente (par exemple, de la nourriture, de l'argent, du travail, du transport, etc.), vers qui, &lt;span style="color:red"&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>en DEHORS DE CE VILLAGE,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/span&gt;  pourriez-vous vous tourner pour obtenir de l'aide ?</t>
+    </r>
+  </si>
+  <si>
+    <t>select_one evolRessourcSociales</t>
+  </si>
+  <si>
+    <t>evolutionRessourcesSociales</t>
+  </si>
+  <si>
+    <t>Par rapport à il y a un an, est-ce que votre capacité à obtenir de l'aide de quelqu'un à l'intérieur ou à l'extérieur de votre village s'est :</t>
+  </si>
+  <si>
+    <t>PersAAiderCommunaute</t>
+  </si>
+  <si>
+    <r>
+      <t>Qui,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;span style="color:red"&gt;  DANS CETTE COMMUNAUTÉ, pourriez-vous aider s'ils avaient besoin d'une aide urgente&lt;/span&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(par ex. nourriture, argent, travail, transport, etc.) ?</t>
+    </r>
+  </si>
+  <si>
+    <t>PersAAiderEnDehorsCommunaute</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Qui, &lt;span style="color:red"&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">EN DEHORS DE CETTE COMMUNAUTÉ, &lt;/span&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pourriez-vous aider s'il avait besoin d'une aide urgente (par exemple de la nourriture, de l'argent, du travail, du transport, etc.) ? </t>
+    </r>
+  </si>
+  <si>
+    <t>select_one OuiNonNspRefus</t>
+  </si>
+  <si>
+    <t>ConnaissanceMembreGouvernement</t>
+  </si>
+  <si>
+    <t>Est-ce que vous ou quelqu'un d'autre dans votre foyer connaît personnellement un élu du gouvernement ?</t>
+  </si>
+  <si>
+    <t>select_one MembAyantConnuMembGvrmt or_other</t>
+  </si>
+  <si>
+    <t>PersConnaissantMembreGvrnmt</t>
+  </si>
+  <si>
+    <t>Comment vous (ou un autre membre du foyer) connaissez-vous ce représentant du gouvernement ? Est-il ou est-elle un(e)... (lisez la liste ; sélectionnez toutes les réponses qui s'appliquent) ?</t>
+  </si>
+  <si>
+    <t>CapacitDemanderAideAGvnmt</t>
+  </si>
+  <si>
+    <t>Pourriez-vous demander au fonctionnaire d'aider votre famille ou votre communauté si une aide était nécessaire ?</t>
+  </si>
+  <si>
+    <t>ConnaissanceMembreNGO</t>
+  </si>
+  <si>
+    <t>Est-ce que vous ou quelqu'un d'autre dans votre foyer connaît personnellement un membre du personnel d'une ONG [OU d'une organisation communautaire, d'une agence des Nations Unies, de la Croix Rouge/Croissant Rouge...] ?</t>
+  </si>
+  <si>
+    <t>PersConnaissantMembreNGO</t>
+  </si>
+  <si>
+    <t>Comment connaissez-vous (ou un autre membre du ménage) le membre du personnel de l'[AGENCE] ? Est-il ou est-elle un(e)... ?</t>
+  </si>
+  <si>
+    <t>CapaciteDemanerAideAubesoin</t>
+  </si>
+  <si>
+    <t>Pourriez-vous demander au membre du personnel de [l'AGENCE] d'aider votre famille ou votre communauté si de l'aide était nécessaire ?</t>
+  </si>
+  <si>
+    <t>socialNetworkIndex</t>
+  </si>
+  <si>
+    <t>Résaux sociaux</t>
+  </si>
+  <si>
+    <t>ExistenceGroup</t>
+  </si>
+  <si>
+    <t>ExistenceGroupeUsagerEau</t>
+  </si>
+  <si>
+    <t>Est-ce qu'il existe un &lt;span style="color:red"&gt; a. Groupe d'usagers de l'eau&lt;/span&gt; dans cette communauté?</t>
+  </si>
+  <si>
+    <t>ExistenceGroupeUtilisateurPat</t>
+  </si>
+  <si>
+    <t>Est-ce qu'il existe un &lt;span style="color:red"&gt; b. Groupe d'utilisateurs des pâturages&lt;/span&gt; dans cette communauté?</t>
+  </si>
+  <si>
+    <t>ExistenceGrouperessourcesNat</t>
+  </si>
+  <si>
+    <t>Est-ce qu'il existe un &lt;span style="color:red"&gt; c. Groupe de ressources naturelles communautaires&lt;/span&gt; dans cette communauté?</t>
+  </si>
+  <si>
+    <t>ExistenceGroupecreditMicrofinan</t>
+  </si>
+  <si>
+    <t>Est-ce qu'il existe un &lt;span style="color:red"&gt; d. Groupe de crédit ou de microfinance&lt;/span&gt; dans cette communauté?</t>
+  </si>
+  <si>
+    <t>ExistenceGroupeEpargne</t>
+  </si>
+  <si>
+    <t>Est-ce qu'il existe un &lt;span style="color:red"&gt; e. Groupe d'épargne (par exemple VSLA, merry-go-round, etc.) ;&lt;/span&gt; dans cette communauté?</t>
+  </si>
+  <si>
+    <t>ExistenceGroupeEntraide</t>
+  </si>
+  <si>
+    <t>Est-ce qu'il existe un &lt;span style="color:red"&gt; f. Groupe d'entraide (par exemple, ritban, afoosha, ofera/webera, enterrement, etc) ;&lt;/span&gt; dans cette communauté?</t>
+  </si>
+  <si>
+    <t>ExistenceGroupeReligieux</t>
+  </si>
+  <si>
+    <t>Est-ce qu'il existe un &lt;span style="color:red"&gt; g. Groupe religieux ; &lt;/span&gt; dans cette communauté?</t>
+  </si>
+  <si>
+    <t>ExistenceGroupedeMere</t>
+  </si>
+  <si>
+    <t>Est-ce qu'il existe un &lt;span style="color:red"&gt; h. Groupe de mères ;&lt;/span&gt; dans cette communauté?</t>
+  </si>
+  <si>
+    <t>ExistenceGroupedeFemmes</t>
+  </si>
+  <si>
+    <t>Est-ce qu'il existe un &lt;span style="color:red"&gt; i. Groupement de femmes&lt;/span&gt; dans cette communauté?</t>
+  </si>
+  <si>
+    <t>ExistenceGroupedejeunes</t>
+  </si>
+  <si>
+    <t>Est-ce qu'il existe un &lt;span style="color:red"&gt; j. Groupe de jeunes&lt;/span&gt; dans cette communauté?</t>
+  </si>
+  <si>
+    <t>ExistenceGroupeSportif</t>
+  </si>
+  <si>
+    <t>Est-ce qu'il existe un &lt;span style="color:red"&gt; k. Groupe sportif&lt;/span&gt; dans cette communauté?</t>
+  </si>
+  <si>
+    <t>ExistenceGroupePlanification</t>
+  </si>
+  <si>
+    <t>Est-ce qu'il existe un &lt;span style="color:red"&gt; l. Groupe de planification en cas de catastrophe ;&lt;/span&gt; dans cette communauté?</t>
+  </si>
+  <si>
+    <t>select_one FrequenceAssistance</t>
+  </si>
+  <si>
+    <t>FairePartieGroupeAyantfouTrav</t>
+  </si>
+  <si>
+    <t>Au cours des 12 derniers mois, combien de fois vous ou quelqu'un de votre foyer a-t-il fait partie d'un groupe qui &lt;span style="color:red"&gt;  a fourni du travail à une personne &lt;/span&gt;  de la communauté qui en avait besoin ?</t>
+  </si>
+  <si>
+    <t>FairePartieGroupeAyantfouNour</t>
+  </si>
+  <si>
+    <t>Au cours des 12 derniers mois, combien de fois avez-vous, vous ou quelqu'un de votre foyer, fait partie d'un groupe qui &lt;span style="color:red"&gt; a fourni de la nourriture à une personne &lt;/span&gt;  de la communauté qui en avait besoin ?</t>
+  </si>
+  <si>
+    <t>FairePartieGroupeAyantfourniAutreAssistance</t>
+  </si>
+  <si>
+    <t>Au cours des 12 derniers mois, combien de fois avez-vous, vous ou quelqu'un de votre foyer, fait partie d'un groupe qui &lt;span style="color:red"&gt; a fourni un autre type d'aide à quelqu'un d'autre &lt;/span&gt; dans la communauté ?</t>
+  </si>
+  <si>
+    <t>select_one capaciteinterplearder</t>
+  </si>
+  <si>
+    <t>CapaciteInterpellerLeaders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment appréciez-vous vos capacités à interpeller les dirigeants et les personnes influentes dans cette communité sur certaines questions que vous voulez discuter avec eux ? </t>
+  </si>
+  <si>
+    <t>select_one priseEncompteQuestions</t>
+  </si>
+  <si>
+    <t>PriseEnCompteQuestions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensez-vous que les questions que vous soulevez sont sérieusement prise en compte ? </t>
+  </si>
+  <si>
+    <t>SERS</t>
+  </si>
+  <si>
+    <t>Score de résilience auto-évalué</t>
+  </si>
+  <si>
+    <t>sersquestion</t>
+  </si>
+  <si>
+    <t>"Par rapport aux affirmations suivantes, diriez-vous que vous êtes tout à fait d'accord, d'accord, pas d'accord, pas du tout d'accord, ou ni d'accord ni pas d'accord ? "</t>
+  </si>
+  <si>
+    <t>select_one appreciationSERS</t>
+  </si>
+  <si>
+    <t>PeutRebombir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre ménage peut rebondir face à n'importe quel choc que la vie lui lance. </t>
+  </si>
+  <si>
+    <t>PeutChangerSourcesRevenu</t>
+  </si>
+  <si>
+    <t>En période de difficultés, votre ménage peut changer son revenu principal ou sa source de subsistance si nécessaire.</t>
+  </si>
+  <si>
+    <t>MoyensadaptationAuxStress</t>
+  </si>
+  <si>
+    <t>Si les menaces pesant sur votre ménage devenaient plus fréquentes et plus intenses, vous trouveriez toujours un moyen de vous en sortir</t>
+  </si>
+  <si>
+    <t>PeutAccederAuFinancement</t>
+  </si>
+  <si>
+    <t>En période de difficultés, votre ménage peut accéder au soutien financier dont il a besoin.</t>
+  </si>
+  <si>
+    <t>SoutienFamilleAmis</t>
+  </si>
+  <si>
+    <t>Votre ménage peut compter sur le soutien de votre famille et de vos amis lorsque vous avez besoin d'aide.</t>
+  </si>
+  <si>
+    <t>SoutienPoliticiens</t>
+  </si>
+  <si>
+    <t>Votre ménage peut compter sur le soutien des politiciens et du gouvernement lorsque vous avez besoin d'aide.</t>
+  </si>
+  <si>
+    <t>CapitalisationExperienceAnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre ménage a tiré des leçons importantes des épreuves passées qui vous aideront à mieux vous préparer aux menaces futures. </t>
+  </si>
+  <si>
+    <t>PreparerAuxfuturesChocs</t>
+  </si>
+  <si>
+    <t>Votre ménage est parfaitement préparé aux futures catastrophes naturelles qui pourraient survenir dans votre région.</t>
+  </si>
+  <si>
+    <t>ABI</t>
+  </si>
+  <si>
+    <t>ASSET BENEFIT INDICATOR (ABI)</t>
+  </si>
+  <si>
+    <t>reductiontension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensez-vous que les [actifs] créés/réhabilités ont aidé réduire les tensions au sein sur l'accès et l'utilisation des ressources naturelles dans votre communauté ? </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,14 +1413,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -578,14 +1421,6 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -615,28 +1450,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="10.5"/>
       <color theme="1"/>
@@ -657,8 +1470,71 @@
       <name val="Palatino Linotype"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,6 +1579,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +1680,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -883,37 +1765,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -921,16 +1786,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -951,28 +1813,73 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1375,10 +2282,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O161"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1447,529 +2354,1963 @@
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>43</v>
+      <c r="C3" s="53" t="s">
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>44</v>
+      <c r="A4" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>43</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>45</v>
+      <c r="A5" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>46</v>
+      <c r="A6" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>47</v>
+      <c r="A7" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>48</v>
+      <c r="A8" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>49</v>
+      <c r="A9" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>50</v>
+      <c r="A10" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>51</v>
+      <c r="A11" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>50</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>52</v>
-      </c>
+      <c r="A12" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+    </row>
+    <row r="14" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="H14" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="66"/>
+    </row>
+    <row r="15" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="H15" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="K16" s="42"/>
+      <c r="A16" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="H16" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="66"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="50"/>
-      <c r="K17" s="42"/>
+      <c r="A17" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="H17" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="66"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="H18" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="66"/>
       <c r="K18" s="30"/>
     </row>
     <row r="19" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="K19" s="42"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="50"/>
-      <c r="K20" s="42"/>
+      <c r="A20" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
       <c r="K21" s="30"/>
     </row>
     <row r="22" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="K22" s="42"/>
+      <c r="A22" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="38"/>
     </row>
     <row r="23" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23" s="36"/>
-      <c r="K23" s="46"/>
+      <c r="A23" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="H23" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="66"/>
+      <c r="K23" s="39"/>
     </row>
     <row r="24" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="K24" s="47"/>
+      <c r="A24" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="H24" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="66"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="25" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="3"/>
-      <c r="K25" s="47"/>
+      <c r="A25" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="H25" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="66"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26" s="36"/>
-      <c r="K26" s="46"/>
+      <c r="A26" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="H26" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="66"/>
+      <c r="K26" s="39"/>
     </row>
     <row r="27" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="K27" s="47"/>
+      <c r="A27" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="H27" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="66"/>
+      <c r="K27" s="40"/>
     </row>
     <row r="28" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28"/>
-      <c r="K28" s="47"/>
+      <c r="A28" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="H28" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="66"/>
+      <c r="K28" s="40"/>
     </row>
     <row r="29" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="B29" s="36"/>
-      <c r="K29" s="46"/>
+      <c r="A29" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="H29" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="66"/>
+      <c r="K29" s="39"/>
     </row>
     <row r="30" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="K30" s="47"/>
+      <c r="A30" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="H30" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="66"/>
+      <c r="K30" s="40"/>
     </row>
     <row r="31" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="3"/>
-      <c r="K31" s="47"/>
+      <c r="A31" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="H31" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="66"/>
+      <c r="K31" s="40"/>
     </row>
     <row r="32" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-      <c r="B32" s="36"/>
-      <c r="K32" s="46"/>
+      <c r="A32" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="H32" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="66"/>
+      <c r="K32" s="39"/>
     </row>
     <row r="33" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33" s="37"/>
-      <c r="K33" s="48"/>
+      <c r="A33" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="H33" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="66"/>
+      <c r="K33" s="41"/>
     </row>
     <row r="34" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="3"/>
-      <c r="K34" s="48"/>
+      <c r="A34" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="H34" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="66"/>
+      <c r="K34" s="41"/>
     </row>
     <row r="35" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35"/>
+      <c r="A35" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="H35" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="66"/>
       <c r="K35"/>
     </row>
     <row r="36" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
+      <c r="A36" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="H36" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="66"/>
       <c r="K36"/>
     </row>
     <row r="37" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30"/>
+      <c r="A37" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="H37" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="66"/>
       <c r="K37" s="29"/>
     </row>
     <row r="38" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
-      <c r="K38" s="40"/>
+      <c r="A38" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="H38" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="66"/>
+      <c r="K38" s="36"/>
     </row>
     <row r="39" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="B39" s="32"/>
-      <c r="K39" s="37"/>
+      <c r="A39" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="H39" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="66"/>
+      <c r="K39" s="34"/>
     </row>
     <row r="40" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="B40" s="41"/>
-      <c r="K40" s="37"/>
+      <c r="A40" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="K40" s="34"/>
     </row>
     <row r="41" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="41"/>
-      <c r="K41" s="37"/>
+      <c r="A41" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41" s="34"/>
     </row>
     <row r="42" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-      <c r="B42" s="32"/>
-      <c r="K42" s="37"/>
+      <c r="A42" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="K42" s="34"/>
     </row>
     <row r="43" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43"/>
-      <c r="B43" s="38"/>
-      <c r="K43" s="37"/>
+      <c r="A43" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="K43" s="34"/>
     </row>
     <row r="44" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="38"/>
-      <c r="K44" s="37"/>
+      <c r="A44" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="K44" s="34"/>
     </row>
     <row r="45" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30"/>
+      <c r="A45" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
       <c r="K45" s="29"/>
     </row>
     <row r="46" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="K46" s="39"/>
+      <c r="A46" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="K46" s="35"/>
     </row>
     <row r="47" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="3"/>
-      <c r="K47" s="39"/>
+      <c r="A47" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="K47" s="35"/>
     </row>
     <row r="48" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48"/>
-      <c r="B48" s="36"/>
-      <c r="K48" s="49"/>
+      <c r="A48" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="K48" s="42"/>
     </row>
     <row r="49" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="K49" s="49"/>
+      <c r="A49" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="K49" s="42"/>
     </row>
     <row r="50" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50"/>
-      <c r="K50" s="49"/>
+      <c r="A50" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="K50" s="42"/>
     </row>
     <row r="51" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
       <c r="K51" s="29"/>
     </row>
     <row r="52" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="43"/>
-      <c r="K52" s="39"/>
+      <c r="A52" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="K52" s="35"/>
     </row>
     <row r="53" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="3"/>
-      <c r="K53" s="39"/>
+      <c r="A53" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="K53" s="35"/>
     </row>
     <row r="54" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="35"/>
-      <c r="K54" s="39"/>
+      <c r="A54" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+      <c r="K54" s="35"/>
     </row>
     <row r="55" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="43"/>
-      <c r="K55" s="39"/>
+      <c r="A55" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="K55" s="35"/>
     </row>
     <row r="56" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="3"/>
-      <c r="K56" s="39"/>
+      <c r="A56" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="K56" s="35"/>
     </row>
     <row r="57" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="43"/>
-      <c r="K57" s="39"/>
+      <c r="A57" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="K57" s="35"/>
     </row>
     <row r="58" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="43"/>
-      <c r="K58" s="39"/>
+      <c r="A58" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="K58" s="35"/>
     </row>
     <row r="59" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="3"/>
-      <c r="K59" s="39"/>
+      <c r="A59" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="64"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="K59" s="35"/>
     </row>
     <row r="60" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
-      <c r="B60" s="45"/>
+      <c r="A60" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="62" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
+      <c r="A62" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
     </row>
     <row r="63" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K63" s="39"/>
+      <c r="A63" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="K63" s="35"/>
     </row>
     <row r="64" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K64" s="39"/>
+      <c r="A64" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="H64" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="66"/>
+      <c r="K64" s="35"/>
+    </row>
+    <row r="65" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="H65" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="66"/>
+    </row>
+    <row r="66" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="H66" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="66"/>
+    </row>
+    <row r="67" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="H67" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="66"/>
     </row>
     <row r="68" spans="1:11" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="51"/>
-      <c r="H68" s="1"/>
+      <c r="A68" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="H68" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="66"/>
     </row>
     <row r="69" spans="1:11" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H69" s="1"/>
-      <c r="K69" s="52"/>
+      <c r="A69" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="K69" s="43"/>
     </row>
     <row r="70" spans="1:11" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H70" s="1"/>
-      <c r="K70" s="52"/>
+      <c r="A70" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="H70" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="66"/>
+      <c r="K70" s="43"/>
     </row>
     <row r="71" spans="1:11" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H71" s="1"/>
+      <c r="A71" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="H71" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="66"/>
     </row>
     <row r="72" spans="1:11" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H72" s="1"/>
+      <c r="A72" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="H72" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="66"/>
     </row>
     <row r="73" spans="1:11" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="A73" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="H73" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="66"/>
     </row>
     <row r="74" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="53"/>
-      <c r="H74" s="1"/>
+      <c r="A74" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="H74" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="66"/>
     </row>
     <row r="75" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H75" s="1"/>
-      <c r="K75" s="54"/>
+      <c r="A75" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="H75" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="66"/>
+      <c r="K75" s="44"/>
     </row>
     <row r="76" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H76" s="1"/>
-      <c r="K76" s="54"/>
+      <c r="A76" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B76" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="H76" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="66"/>
+      <c r="K76" s="44"/>
     </row>
     <row r="77" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H77" s="1"/>
+      <c r="A77" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="H77" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="66"/>
     </row>
     <row r="78" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H78" s="1"/>
+      <c r="A78" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="H78" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="66"/>
     </row>
     <row r="79" spans="1:11" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="A79" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="H79" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="66"/>
     </row>
     <row r="80" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="3"/>
+      <c r="A80" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
+      <c r="H80" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="66"/>
     </row>
     <row r="81" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K81" s="39"/>
+      <c r="A81" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="C81" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="H81" s="63"/>
+      <c r="I81" s="63"/>
+      <c r="K81" s="35"/>
     </row>
     <row r="82" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K82" s="39"/>
+      <c r="A82" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C82" s="65"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="K82" s="35"/>
+    </row>
+    <row r="83" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="H83" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="66"/>
+    </row>
+    <row r="84" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C84" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="H84" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="66"/>
+    </row>
+    <row r="85" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C85" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="H85" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="66"/>
     </row>
     <row r="86" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="53"/>
-      <c r="H86" s="1"/>
+      <c r="A86" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C86" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="H86" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="66"/>
     </row>
     <row r="87" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H87" s="1"/>
-      <c r="K87" s="54"/>
+      <c r="A87" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="H87" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="66"/>
+      <c r="K87" s="44"/>
     </row>
     <row r="88" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H88" s="1"/>
-      <c r="K88" s="54"/>
+      <c r="A88" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B88" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
+      <c r="H88" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="66"/>
+      <c r="K88" s="44"/>
     </row>
     <row r="89" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H89" s="1"/>
+      <c r="A89" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="H89" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="66"/>
     </row>
     <row r="90" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H90" s="1"/>
+      <c r="A90" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="H90" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="66"/>
     </row>
     <row r="91" spans="1:11" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="A91" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="H91" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="66"/>
     </row>
     <row r="92" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="3"/>
+      <c r="A92" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="C92" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="H92" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="66"/>
     </row>
     <row r="93" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K93" s="39"/>
+      <c r="A93" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="H93" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="66"/>
+      <c r="K93" s="35"/>
     </row>
     <row r="94" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K94" s="39"/>
+      <c r="A94" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B94" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="C94" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94" s="66"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="66"/>
+      <c r="H94" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="66"/>
+      <c r="K94" s="35"/>
+    </row>
+    <row r="95" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="64"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
+    </row>
+    <row r="96" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="B96" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="C96" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="66"/>
+      <c r="H96" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="66"/>
+    </row>
+    <row r="97" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="C97" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="H97" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="66"/>
     </row>
     <row r="98" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="53"/>
-      <c r="H98" s="1"/>
+      <c r="A98" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="B98" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="H98" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="66"/>
     </row>
     <row r="99" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H99" s="1"/>
-      <c r="K99" s="54"/>
+      <c r="A99" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="B99" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+      <c r="H99" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="66"/>
+      <c r="K99" s="44"/>
     </row>
     <row r="100" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H100" s="1"/>
-      <c r="K100" s="54"/>
+      <c r="A100" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="B100" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="D100" s="66"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="H100" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="66"/>
+      <c r="K100" s="44"/>
     </row>
     <row r="101" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H101" s="1"/>
+      <c r="A101" s="64"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="H101" s="66"/>
+      <c r="I101" s="66"/>
     </row>
     <row r="102" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H102" s="1"/>
+      <c r="A102" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B102" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="C102" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="D102" s="63"/>
+      <c r="E102" s="63"/>
+      <c r="F102" s="63"/>
+      <c r="H102" s="63"/>
+      <c r="I102" s="63"/>
     </row>
     <row r="103" spans="1:11" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="H103" s="1"/>
+      <c r="A103" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B103" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="C103" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="D103" s="66"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="66" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="104" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="3"/>
+      <c r="A104" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B104" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="H104" s="66"/>
+      <c r="I104" s="66"/>
     </row>
     <row r="105" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K105" s="39"/>
+      <c r="A105" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B105" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="C105" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="D105" s="66"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="66"/>
+      <c r="H105" s="66"/>
+      <c r="I105" s="66"/>
+      <c r="K105" s="35"/>
     </row>
     <row r="106" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K106" s="39"/>
+      <c r="A106" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B106" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="D106" s="66"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="H106" s="66"/>
+      <c r="I106" s="66"/>
+      <c r="K106" s="35"/>
+    </row>
+    <row r="107" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B107" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="C107" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="D107" s="66"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
+      <c r="H107" s="66"/>
+      <c r="I107" s="66"/>
+    </row>
+    <row r="108" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B108" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="C108" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+      <c r="H108" s="66"/>
+      <c r="I108" s="66"/>
+    </row>
+    <row r="109" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B109" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="C109" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="D109" s="66"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="H109" s="66"/>
+      <c r="I109" s="66"/>
     </row>
     <row r="110" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="53"/>
-      <c r="H110" s="1"/>
+      <c r="A110" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B110" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="C110" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="D110" s="66"/>
+      <c r="E110" s="66"/>
+      <c r="F110" s="66"/>
+      <c r="H110" s="66"/>
+      <c r="I110" s="66"/>
     </row>
     <row r="111" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H111" s="1"/>
-      <c r="K111" s="54"/>
+      <c r="A111" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B111" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="C111" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="D111" s="66"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="66"/>
+      <c r="K111" s="44"/>
     </row>
     <row r="112" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H112" s="1"/>
-      <c r="K112" s="54"/>
+      <c r="A112" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="64"/>
+      <c r="C112" s="66"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="66"/>
+      <c r="H112" s="66"/>
+      <c r="I112" s="66"/>
+      <c r="K112" s="44"/>
     </row>
     <row r="113" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H113" s="1"/>
+      <c r="A113" s="64"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="66"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="66"/>
     </row>
     <row r="114" spans="1:11" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H114" s="1"/>
+      <c r="A114" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="C114" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="D114" s="63"/>
+      <c r="E114" s="63"/>
+      <c r="F114" s="63"/>
+      <c r="H114" s="63"/>
+      <c r="I114" s="63"/>
       <c r="K114" s="1"/>
     </row>
     <row r="115" spans="1:11" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="H115" s="1"/>
+      <c r="A115" s="64"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="66"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="66"/>
       <c r="K115" s="1"/>
     </row>
     <row r="116" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="3"/>
+      <c r="A116" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="C116" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="D116" s="66"/>
+      <c r="E116" s="66"/>
+      <c r="F116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="66"/>
     </row>
     <row r="117" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K117" s="39"/>
+      <c r="K117" s="35"/>
     </row>
     <row r="118" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K118" s="39"/>
+      <c r="K118" s="35"/>
     </row>
     <row r="122" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
@@ -1978,10 +4319,10 @@
       <c r="B123" s="3"/>
     </row>
     <row r="124" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="55"/>
+      <c r="B124" s="45"/>
     </row>
     <row r="125" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="55"/>
+      <c r="B125" s="45"/>
     </row>
     <row r="126" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
@@ -1996,7 +4337,7 @@
       <c r="B129" s="3"/>
     </row>
     <row r="130" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="56"/>
+      <c r="B130" s="46"/>
     </row>
     <row r="131" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
@@ -2062,13 +4403,13 @@
       <c r="B152" s="21"/>
     </row>
     <row r="155" spans="1:9" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="57"/>
-      <c r="C155" s="58"/>
-      <c r="D155" s="58"/>
-      <c r="E155" s="59"/>
-      <c r="F155" s="47"/>
-      <c r="G155" s="47"/>
-      <c r="I155" s="59"/>
+      <c r="B155" s="47"/>
+      <c r="C155" s="48"/>
+      <c r="D155" s="48"/>
+      <c r="E155" s="49"/>
+      <c r="F155" s="40"/>
+      <c r="G155" s="40"/>
+      <c r="I155" s="49"/>
     </row>
     <row r="156" spans="1:9" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="29"/>
@@ -2112,8 +4453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2126"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,13 +4478,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>14</v>
@@ -2151,29 +4492,29 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="10">
         <v>3</v>
@@ -2184,12 +4525,12 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2198,26 +4539,6 @@
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-    </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
@@ -2354,22 +4675,22 @@
       <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
     </row>
@@ -4521,19 +6842,19 @@
       <c r="B575" s="18"/>
     </row>
     <row r="895" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B895" s="60"/>
+      <c r="B895" s="50"/>
     </row>
     <row r="1070" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1070" s="60"/>
+      <c r="B1070" s="50"/>
     </row>
     <row r="1186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1186" s="60"/>
+      <c r="B1186" s="50"/>
     </row>
     <row r="1204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1204" s="60"/>
+      <c r="B1204" s="50"/>
     </row>
     <row r="2126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2126" s="60"/>
+      <c r="B2126" s="50"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B343:B2222">
@@ -4547,8 +6868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4570,13 +6891,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4598,12 +6919,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4824,15 +7142,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4857,18 +7187,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>